--- a/microstates/SM10_microstate_IDs_with_2D_depiction.xlsx
+++ b/microstates/SM10_microstate_IDs_with_2D_depiction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
   <si>
     <t>Microstate List</t>
   </si>
@@ -28,12 +28,18 @@
     <t>canonical isomeric SMILES</t>
   </si>
   <si>
+    <t>canonical SMILES</t>
+  </si>
+  <si>
     <t>SM10_micro002</t>
   </si>
   <si>
     <t>c1ccc(cc1)/C(=N/C=C(\Nc2nc3ccccc3s2)/[O-])/[O-]</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=NC=C(Nc2nc3ccccc3s2)[O-])[O-]</t>
+  </si>
+  <si>
     <t>SM10_micro003</t>
   </si>
   <si>
@@ -46,12 +52,18 @@
     <t>c1ccc(cc1)/C(=N/CC(=O)Nc2nc3ccccc3s2)/[O-]</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=NCC(=O)Nc2nc3ccccc3s2)[O-]</t>
+  </si>
+  <si>
     <t>SM10_micro005</t>
   </si>
   <si>
     <t>c1ccc(cc1)/C(=N/C/C(=[NH+]/c2nc3ccccc3s2)/O)/[O-]</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=NCC(=[NH+]c2nc3ccccc3s2)O)[O-]</t>
+  </si>
+  <si>
     <t>SM10_micro006</t>
   </si>
   <si>
@@ -70,12 +82,18 @@
     <t>c1ccc(cc1)C(=[OH+])NC/C(=N/c2nc3ccccc3s2)/[O-]</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=[OH+])NCC(=Nc2nc3ccccc3s2)[O-]</t>
+  </si>
+  <si>
     <t>SM10_micro009</t>
   </si>
   <si>
     <t>c1ccc(cc1)C(=O)N[CH-]C(=[OH+])/N=c/2\[nH]c3ccccc3s2</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=O)N[CH-]C(=[OH+])N=c2[nH]c3ccccc3s2</t>
+  </si>
+  <si>
     <t>SM10_micro010</t>
   </si>
   <si>
@@ -88,18 +106,27 @@
     <t>c1ccc(cc1)C(=O)[NH2+]C/C(=N/c2nc3ccccc3s2)/[O-]</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=O)[NH2+]CC(=Nc2nc3ccccc3s2)[O-]</t>
+  </si>
+  <si>
     <t>SM10_micro013</t>
   </si>
   <si>
     <t>c1ccc(cc1)C(=O)N/C=C(\N=c\2/[nH]c3ccccc3s2)/[O-]</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=O)NC=C(N=c2[nH]c3ccccc3s2)[O-]</t>
+  </si>
+  <si>
     <t>SM10_micro014</t>
   </si>
   <si>
     <t>c1ccc(cc1)/C(=N/C=C(\Nc2nc3ccccc3s2)/O)/[O-]</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=NC=C(Nc2nc3ccccc3s2)O)[O-]</t>
+  </si>
+  <si>
     <t>SM10_micro015</t>
   </si>
   <si>
@@ -112,102 +139,141 @@
     <t>c1ccc(cc1)C(=O)[NH2+]CC(=O)/N=c/2\[nH]c3ccccc3s2</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=O)[NH2+]CC(=O)N=c2[nH]c3ccccc3s2</t>
+  </si>
+  <si>
     <t>SM10_micro017</t>
   </si>
   <si>
     <t>c1ccc(cc1)C(=O)N/C=C(\Nc2nc3ccccc3s2)/[O-]</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=O)NC=C(Nc2nc3ccccc3s2)[O-]</t>
+  </si>
+  <si>
     <t>SM10_micro018</t>
   </si>
   <si>
     <t>c1ccc(cc1)/C(=N/C/C(=N/c2nc3ccccc3s2)/[O-])/[O-]</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=NCC(=Nc2nc3ccccc3s2)[O-])[O-]</t>
+  </si>
+  <si>
     <t>SM10_micro019</t>
   </si>
   <si>
     <t>c1ccc(cc1)C(=[OH+])N/C=C(\Nc2nc3ccccc3s2)/[O-]</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=[OH+])NC=C(Nc2nc3ccccc3s2)[O-]</t>
+  </si>
+  <si>
     <t>SM10_micro020</t>
   </si>
   <si>
     <t>c1ccc(cc1)/C(=N/CC(=O)/N=c/2\[nH]c3ccccc3s2)/[O-]</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=NCC(=O)N=c2[nH]c3ccccc3s2)[O-]</t>
+  </si>
+  <si>
     <t>SM10_micro021</t>
   </si>
   <si>
     <t>c1ccc(cc1)/C(=N/C=C(\Nc2[nH+]c3ccccc3s2)/[O-])/[O-]</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=NC=C(Nc2[nH+]c3ccccc3s2)[O-])[O-]</t>
+  </si>
+  <si>
     <t>SM10_micro022</t>
   </si>
   <si>
     <t>c1ccc(cc1)/C(=N/C=C(\[N-]c2nc3ccccc3s2)/[O-])/[O-]</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=NC=C([N-]c2nc3ccccc3s2)[O-])[O-]</t>
+  </si>
+  <si>
     <t>SM10_micro023</t>
   </si>
   <si>
     <t>c1ccc(cc1)C(=O)NC/C(=N/c2nc3ccccc3s2)/[O-]</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=O)NCC(=Nc2nc3ccccc3s2)[O-]</t>
+  </si>
+  <si>
     <t>SM10_micro024</t>
   </si>
   <si>
     <t>c1ccc(cc1)C(=[OH+])NCC(=O)/N=c/2\[nH]c3ccccc3s2</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=[OH+])NCC(=O)N=c2[nH]c3ccccc3s2</t>
+  </si>
+  <si>
     <t>SM10_micro026</t>
   </si>
   <si>
     <t>c1ccc(cc1)C(=O)N/C=C(\Nc2[nH+]c3ccccc3s2)/O</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=O)NC=C(Nc2[nH+]c3ccccc3s2)O</t>
+  </si>
+  <si>
     <t>SM10_micro027</t>
   </si>
   <si>
     <t>c1ccc(cc1)C(=O)N/C=C(\[N-]c2nc3ccccc3s2)/[O-]</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=O)NC=C([N-]c2nc3ccccc3s2)[O-]</t>
+  </si>
+  <si>
     <t>SM10_micro028</t>
   </si>
   <si>
     <t>c1ccc(cc1)C(=O)NCC(=O)Nc2[nH+]c3ccccc3s2</t>
   </si>
   <si>
-    <t>SM10_micro029</t>
-  </si>
-  <si>
-    <t>c1ccc(cc1)C(=O)N/C=C(\Nc2nc3ccccc3s2)/O</t>
-  </si>
-  <si>
     <t>SM10_micro030</t>
   </si>
   <si>
     <t>c1ccc(cc1)/C(=N/C=C(\N=c\2/[nH]c3ccccc3s2)/[O-])/[O-]</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=NC=C(N=c2[nH]c3ccccc3s2)[O-])[O-]</t>
+  </si>
+  <si>
     <t>SM10_micro031</t>
   </si>
   <si>
     <t>c1ccc(cc1)C(=O)N/C=C(\Nc2[nH+]c3ccccc3s2)/[O-]</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=O)NC=C(Nc2[nH+]c3ccccc3s2)[O-]</t>
+  </si>
+  <si>
     <t>SM10_micro032</t>
   </si>
   <si>
     <t>c1ccc(cc1)C(=O)NC/C(=[NH+]/c2nc3ccccc3s2)/O</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=O)NCC(=[NH+]c2nc3ccccc3s2)O</t>
+  </si>
+  <si>
     <t>SM10_micro033</t>
   </si>
   <si>
     <t>c1ccc(cc1)C(=O)NCC(=[OH+])/N=c/2\[nH]c3ccccc3s2</t>
   </si>
   <si>
+    <t>c1ccc(cc1)C(=O)NCC(=[OH+])N=c2[nH]c3ccccc3s2</t>
+  </si>
+  <si>
     <t>SM10_micro034</t>
   </si>
   <si>
@@ -218,6 +284,18 @@
   </si>
   <si>
     <t>c1ccc(cc1)C(=O)NCC(=O)Nc2nc3ccccc3s2</t>
+  </si>
+  <si>
+    <t>SM10_micro037</t>
+  </si>
+  <si>
+    <t>c1ccc(cc1)C(=O)[N-]CC(=O)Nc2[nH+]c3ccccc3s2</t>
+  </si>
+  <si>
+    <t>SM10_micro038</t>
+  </si>
+  <si>
+    <t>c1ccc(cc1)C(=O)[NH2+]CC(=O)Nc2[nH+]c3ccccc3s2</t>
   </si>
 </sst>
 </file>
@@ -1530,6 +1608,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="98707575"/>
+          <a:ext cx="3175163" cy="3175163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3175163</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="tmp34.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="101879400"/>
           <a:ext cx="3175163" cy="3175163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1827,7 +1943,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1836,14 +1952,15 @@
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+    <row r="2" spans="1:4" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1853,261 +1970,371 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>46</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>58</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>61</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>64</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>70</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>73</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>75</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>78</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>81</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>84</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+        <v>87</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+        <v>89</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B34" s="3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>67</v>
+        <v>91</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" s="2" customFormat="1" ht="250.0" customHeight="1">
+      <c r="B35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
